--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -1318,7 +1318,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:focus}
+    <t xml:space="preserve">exists:focus}
 </t>
   </si>
   <si>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -690,7 +690,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1047,7 +1047,7 @@
     <t>Certificate issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -1551,11 +1551,11 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
 </t>
   </si>
 </sst>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="497">
   <si>
     <t>Path</t>
   </si>
@@ -1318,8 +1318,11 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">exists:focus}
-</t>
+    <t>value:code}
+profile:focus.resolve()}</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
@@ -8585,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>417</v>
@@ -8600,16 +8603,16 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8620,7 +8623,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8732,7 +8735,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8846,7 +8849,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8962,11 +8965,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8988,16 +8991,16 @@
         <v>55</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -9046,7 +9049,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9078,7 +9081,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9104,16 +9107,16 @@
         <v>143</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9141,10 +9144,10 @@
         <v>209</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9162,7 +9165,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9194,7 +9197,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9220,10 +9223,10 @@
         <v>273</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
@@ -9276,7 +9279,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9308,7 +9311,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9334,13 +9337,13 @@
         <v>413</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9390,7 +9393,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9411,7 +9414,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9422,7 +9425,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9448,13 +9451,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9504,7 +9507,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9513,7 +9516,7 @@
         <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9522,10 +9525,10 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9536,7 +9539,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9562,16 +9565,16 @@
         <v>73</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9599,10 +9602,10 @@
         <v>137</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9620,7 +9623,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9638,7 +9641,7 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>125</v>
@@ -9652,7 +9655,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9678,16 +9681,16 @@
         <v>143</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9715,10 +9718,10 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9736,7 +9739,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9754,7 +9757,7 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>125</v>
@@ -9768,7 +9771,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9794,13 +9797,13 @@
         <v>413</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9850,7 +9853,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9859,7 +9862,7 @@
         <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>65</v>
@@ -9868,10 +9871,10 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9882,7 +9885,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9908,16 +9911,16 @@
         <v>143</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9945,10 +9948,10 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>41</v>
@@ -9966,7 +9969,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9975,7 +9978,7 @@
         <v>53</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>65</v>
@@ -9984,7 +9987,7 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>125</v>
@@ -9998,7 +10001,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10024,13 +10027,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10080,7 +10083,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10089,7 +10092,7 @@
         <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>65</v>
@@ -10098,10 +10101,10 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10115,7 +10118,7 @@
         <v>417</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>41</v>
@@ -10140,10 +10143,10 @@
         <v>299</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10206,16 +10209,16 @@
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10226,7 +10229,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10338,7 +10341,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10452,7 +10455,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10568,11 +10571,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10594,16 +10597,16 @@
         <v>55</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10652,7 +10655,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10684,7 +10687,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10692,7 +10695,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>53</v>
@@ -10710,16 +10713,16 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10729,7 +10732,7 @@
         <v>41</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>41</v>
@@ -10747,10 +10750,10 @@
         <v>209</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10768,7 +10771,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10800,7 +10803,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10826,10 +10829,10 @@
         <v>273</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
@@ -10882,7 +10885,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10914,7 +10917,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10937,16 +10940,16 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10996,7 +10999,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11017,7 +11020,7 @@
         <v>41</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -11028,7 +11031,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11054,13 +11057,13 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11110,7 +11113,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11119,7 +11122,7 @@
         <v>53</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>65</v>
@@ -11128,10 +11131,10 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11142,7 +11145,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11168,16 +11171,16 @@
         <v>73</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11205,10 +11208,10 @@
         <v>137</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11226,7 +11229,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11244,7 +11247,7 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>125</v>
@@ -11258,7 +11261,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11284,16 +11287,16 @@
         <v>143</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11321,10 +11324,10 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11342,7 +11345,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11360,7 +11363,7 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>125</v>
@@ -11374,7 +11377,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11397,16 +11400,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11456,7 +11459,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11465,7 +11468,7 @@
         <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>65</v>
@@ -11474,10 +11477,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11488,7 +11491,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11514,16 +11517,16 @@
         <v>143</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>41</v>
@@ -11551,10 +11554,10 @@
         <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>41</v>
@@ -11572,7 +11575,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11581,7 +11584,7 @@
         <v>53</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>65</v>
@@ -11590,7 +11593,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>125</v>
@@ -11604,7 +11607,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11630,13 +11633,13 @@
         <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11686,7 +11689,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11695,7 +11698,7 @@
         <v>43</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>65</v>
@@ -11704,10 +11707,10 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -1319,7 +1319,7 @@
   </si>
   <si>
     <t>value:code}
-profile:focus.resolve()}</t>
+type:focus}</t>
   </si>
   <si>
     <t>closed</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
